--- a/data/bank_soal.xlsx
+++ b/data/bank_soal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\cbt edit fix gsheet9\cbt edit fix gsheet\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF3B90D-95B9-4E77-B037-863083BF279A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F581E4-DC64-4A01-971B-EF48EC60B214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2846,9 +2846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82:XFD108"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA128" sqref="AA128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6983,13 +6983,13 @@
         <v>782</v>
       </c>
       <c r="U128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V128" s="6" t="s">
         <v>783</v>
       </c>
       <c r="X128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y128" t="s">
         <v>784</v>
